--- a/Gerbers/v10-L2-BOM.xlsx
+++ b/Gerbers/v10-L2-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak\Documents\GitHub\ThumbsUpV10\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D9978-0040-4B55-88EE-9B140AF61C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7088FBA4-C5A9-415E-8AAF-0064CEEAFA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="7860" windowWidth="20550" windowHeight="11835" xr2:uid="{38956763-D6BE-4987-83FB-5CC2F269257A}"/>
+    <workbookView xWindow="11805" yWindow="3315" windowWidth="20550" windowHeight="11835" xr2:uid="{38956763-D6BE-4987-83FB-5CC2F269257A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>D46,D45,D25,D44,D43,D42,D41,D40,D39,D38,D37,D36,D35,D34,D33,D32,D31,D30,D29,D28,D27,D26,D24,D23,D22,D21,D20,D19,D18,D17,D16,D15,D14,D13,D12,D11,D10,D9,D8,D7,D6,D5,D4,D3,D2,D1</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>C2836286</t>
+  </si>
+  <si>
+    <t>C6186</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,14 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -573,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +584,13 @@
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -614,7 +610,7 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -631,7 +627,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -682,7 +678,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -785,6 +781,9 @@
       </c>
       <c r="D13" t="s">
         <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
